--- a/Code/Results/Cases/Case_4_67/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_67/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.01408104048358</v>
+        <v>17.20623640891663</v>
       </c>
       <c r="C2">
-        <v>6.706286765526194</v>
+        <v>6.385358286240186</v>
       </c>
       <c r="D2">
-        <v>7.019509684042406</v>
+        <v>6.031926204540781</v>
       </c>
       <c r="E2">
-        <v>7.350911768822847</v>
+        <v>11.14999939463377</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>45.24181235150787</v>
+        <v>51.99776718609861</v>
       </c>
       <c r="H2">
-        <v>13.95184497910357</v>
+        <v>19.92052412535984</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,16 +448,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>12.95369722733768</v>
+        <v>13.4591484081665</v>
       </c>
       <c r="L2">
-        <v>7.004755959408013</v>
+        <v>10.0609563846518</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>15.17289623053049</v>
+        <v>22.39055922143823</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.02281870804611</v>
+        <v>17.00846135065884</v>
       </c>
       <c r="C3">
-        <v>6.448281418954907</v>
+        <v>6.291716114484077</v>
       </c>
       <c r="D3">
-        <v>6.526745377751135</v>
+        <v>5.921587917251717</v>
       </c>
       <c r="E3">
-        <v>7.236591197308509</v>
+        <v>11.15722288934395</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>43.87000702829704</v>
+        <v>51.81089791319044</v>
       </c>
       <c r="H3">
-        <v>13.80210274925712</v>
+        <v>19.93590165317431</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,16 +495,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>12.05008911554045</v>
+        <v>13.32417713301473</v>
       </c>
       <c r="L3">
-        <v>6.803553167269888</v>
+        <v>10.05268370440948</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>15.33150552472608</v>
+        <v>22.43964158609521</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.39379358907649</v>
+        <v>16.89061543450823</v>
       </c>
       <c r="C4">
-        <v>6.284914801517649</v>
+        <v>6.232470128137936</v>
       </c>
       <c r="D4">
-        <v>6.232912124165817</v>
+        <v>5.854646153820521</v>
       </c>
       <c r="E4">
-        <v>7.169816142261522</v>
+        <v>11.16344942164739</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>43.04629507514705</v>
+        <v>51.70839836525851</v>
       </c>
       <c r="H4">
-        <v>13.71869074736056</v>
+        <v>19.94865658522837</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>11.58322948458391</v>
+        <v>13.24421737541546</v>
       </c>
       <c r="L4">
-        <v>6.681594281277367</v>
+        <v>10.04949064899785</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>15.4334488371756</v>
+        <v>22.47168246559633</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.1325659191478</v>
+        <v>16.84355112225058</v>
       </c>
       <c r="C5">
-        <v>6.217122631394288</v>
+        <v>6.20789772226456</v>
       </c>
       <c r="D5">
-        <v>6.120355713328721</v>
+        <v>5.827609801962024</v>
       </c>
       <c r="E5">
-        <v>7.143467698992001</v>
+        <v>11.16643740675645</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>42.71554470126873</v>
+        <v>51.66973005462512</v>
       </c>
       <c r="H5">
-        <v>13.68678904464612</v>
+        <v>19.95468667366077</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,16 +589,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>11.39001562062712</v>
+        <v>13.21240139875742</v>
       </c>
       <c r="L5">
-        <v>6.632344968653071</v>
+        <v>10.04866510430183</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>15.47611343802903</v>
+        <v>22.48521846208448</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.08890154837383</v>
+        <v>16.83579565057697</v>
       </c>
       <c r="C6">
-        <v>6.205793062982276</v>
+        <v>6.203791891331231</v>
       </c>
       <c r="D6">
-        <v>6.101529987569948</v>
+        <v>5.823136283894241</v>
       </c>
       <c r="E6">
-        <v>7.139144749988188</v>
+        <v>11.16696077911949</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>42.66092828329536</v>
+        <v>51.66349711934465</v>
       </c>
       <c r="H6">
-        <v>13.68161631458025</v>
+        <v>19.95573821092913</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,16 +636,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>11.35772693042211</v>
+        <v>13.20716579480936</v>
       </c>
       <c r="L6">
-        <v>6.62419591097355</v>
+        <v>10.04855678395487</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>15.48326497956098</v>
+        <v>22.48749504745281</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.39029005147054</v>
+        <v>16.88997675334056</v>
       </c>
       <c r="C7">
-        <v>6.284005428846211</v>
+        <v>6.232140459404481</v>
       </c>
       <c r="D7">
-        <v>6.231403319702445</v>
+        <v>5.854280495302461</v>
       </c>
       <c r="E7">
-        <v>7.169457300497103</v>
+        <v>11.16348789393915</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>43.041814211973</v>
+        <v>51.70786428670618</v>
       </c>
       <c r="H7">
-        <v>13.71825212515019</v>
+        <v>19.94873454016594</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,16 +683,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>11.58063766233941</v>
+        <v>13.24378513730724</v>
       </c>
       <c r="L7">
-        <v>6.680928194974876</v>
+        <v>10.04947758800866</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>15.43401971382544</v>
+        <v>22.47186307668101</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.67664603353581</v>
+        <v>17.13733316809688</v>
       </c>
       <c r="C8">
-        <v>6.618367250391306</v>
+        <v>6.353439822011945</v>
       </c>
       <c r="D8">
-        <v>6.852934709007885</v>
+        <v>5.993738290761089</v>
       </c>
       <c r="E8">
-        <v>7.310786966147406</v>
+        <v>11.15211842395117</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>44.76510123688357</v>
+        <v>51.93080972953873</v>
       </c>
       <c r="H8">
-        <v>13.89841047566166</v>
+        <v>19.9251382801977</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,16 +730,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>12.64832250533939</v>
+        <v>13.41202760162009</v>
       </c>
       <c r="L8">
-        <v>6.935083850211641</v>
+        <v>10.05771330051778</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>15.22662364445789</v>
+        <v>22.40708778677241</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>19.03009518516495</v>
+        <v>17.64830685774235</v>
       </c>
       <c r="C9">
-        <v>7.234018767133541</v>
+        <v>6.576981099408499</v>
       </c>
       <c r="D9">
-        <v>7.994904688896086</v>
+        <v>6.27185698784542</v>
       </c>
       <c r="E9">
-        <v>7.614875364743698</v>
+        <v>11.1440239048796</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>48.28206334587429</v>
+        <v>52.4639100039028</v>
       </c>
       <c r="H9">
-        <v>14.32180894487644</v>
+        <v>19.90518057804282</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,16 +777,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>14.74015699349885</v>
+        <v>13.76342390805795</v>
       </c>
       <c r="L9">
-        <v>7.443898507736102</v>
+        <v>10.08876352145035</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>14.85732252660154</v>
+        <v>22.29515929009064</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>20.69048862336286</v>
+        <v>18.03598803476261</v>
       </c>
       <c r="C10">
-        <v>7.661477975671394</v>
+        <v>6.731919661058328</v>
       </c>
       <c r="D10">
-        <v>8.760063492696755</v>
+        <v>6.476712003812188</v>
       </c>
       <c r="E10">
-        <v>7.854485458503483</v>
+        <v>11.14671263283031</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>50.93905053848933</v>
+        <v>52.91218753140951</v>
       </c>
       <c r="H10">
-        <v>14.67892464689488</v>
+        <v>19.9065864341752</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,16 +824,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>16.1395609506448</v>
+        <v>14.03240752358355</v>
       </c>
       <c r="L10">
-        <v>7.821595139543194</v>
+        <v>10.12055316329339</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>14.61083359867209</v>
+        <v>22.22211041388391</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>21.47278079269826</v>
+        <v>18.21425687554213</v>
       </c>
       <c r="C11">
-        <v>7.85059827519246</v>
+        <v>6.800276163709622</v>
       </c>
       <c r="D11">
-        <v>9.092851023968931</v>
+        <v>6.569550649511208</v>
       </c>
       <c r="E11">
-        <v>7.966973959257015</v>
+        <v>11.14980378984019</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>52.16222511780769</v>
+        <v>53.12794204978386</v>
       </c>
       <c r="H11">
-        <v>14.85210667948101</v>
+        <v>19.91071614374776</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>16.74765714905204</v>
+        <v>14.15662348157089</v>
       </c>
       <c r="L11">
-        <v>7.993859335149215</v>
+        <v>10.13693590904992</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>14.50464815125118</v>
+        <v>22.19086960651929</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>21.76416699096339</v>
+        <v>18.28197383499878</v>
       </c>
       <c r="C12">
-        <v>7.921460269434413</v>
+        <v>6.825846573079801</v>
       </c>
       <c r="D12">
-        <v>9.216735448846768</v>
+        <v>6.604618703622503</v>
       </c>
       <c r="E12">
-        <v>8.010071020615133</v>
+        <v>11.15124207618783</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>52.62744320976983</v>
+        <v>53.21129886776218</v>
       </c>
       <c r="H12">
-        <v>14.91929069510756</v>
+        <v>19.91278140510717</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,16 +918,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>16.97394606516762</v>
+        <v>14.20388515062595</v>
       </c>
       <c r="L12">
-        <v>8.059131750669108</v>
+        <v>10.14341302890991</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>14.46534933454952</v>
+        <v>22.17932544154035</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>21.70162555803558</v>
+        <v>18.26738143425678</v>
       </c>
       <c r="C13">
-        <v>7.906232104333179</v>
+        <v>6.820353663470116</v>
       </c>
       <c r="D13">
-        <v>9.190148618240244</v>
+        <v>6.597070658994024</v>
       </c>
       <c r="E13">
-        <v>8.000767051356055</v>
+        <v>11.15092042370454</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>52.52716018084664</v>
+        <v>53.19327363228077</v>
       </c>
       <c r="H13">
-        <v>14.90474907142446</v>
+        <v>19.91231432291119</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>16.9253859717555</v>
+        <v>14.19369723225975</v>
       </c>
       <c r="L13">
-        <v>8.045072709155161</v>
+        <v>10.14200595923014</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>14.4737715128197</v>
+        <v>22.18179896217649</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>21.49684983446028</v>
+        <v>18.21982413937968</v>
       </c>
       <c r="C14">
-        <v>7.856443138254017</v>
+        <v>6.802386213995486</v>
       </c>
       <c r="D14">
-        <v>9.1030854796116</v>
+        <v>6.572437689924642</v>
       </c>
       <c r="E14">
-        <v>7.970509557099334</v>
+        <v>11.14991675837092</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>52.20045833716439</v>
+        <v>53.13476696582183</v>
       </c>
       <c r="H14">
-        <v>14.85760144311033</v>
+        <v>19.9108760081803</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,16 +1012,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>16.76635323275326</v>
+        <v>14.16050748745416</v>
       </c>
       <c r="L14">
-        <v>7.999228653068258</v>
+        <v>10.13746332571361</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>14.50139639486331</v>
+        <v>22.18991412837049</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>21.37079064010253</v>
+        <v>18.19071942845439</v>
       </c>
       <c r="C15">
-        <v>7.825848316591737</v>
+        <v>6.791339387696094</v>
       </c>
       <c r="D15">
-        <v>9.049480710908632</v>
+        <v>6.557336752606978</v>
       </c>
       <c r="E15">
-        <v>7.952041094969895</v>
+        <v>11.14933682218987</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>52.00060757855742</v>
+        <v>53.0991440896593</v>
       </c>
       <c r="H15">
-        <v>14.82893289509257</v>
+        <v>19.91006028188036</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>16.66842580219321</v>
+        <v>14.14020568440943</v>
       </c>
       <c r="L15">
-        <v>7.971152419850118</v>
+        <v>10.13471633396439</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>14.51843793944003</v>
+        <v>22.19492215351684</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>20.63867877207396</v>
+        <v>18.02437068025228</v>
       </c>
       <c r="C16">
-        <v>7.649012154246218</v>
+        <v>6.727408843442078</v>
       </c>
       <c r="D16">
-        <v>8.73801273544888</v>
+        <v>6.470634476454343</v>
       </c>
       <c r="E16">
-        <v>7.847204081345385</v>
+        <v>11.14654813539526</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>50.85939871928573</v>
+        <v>52.89832167248024</v>
       </c>
       <c r="H16">
-        <v>14.66782780211965</v>
+        <v>19.9063867465246</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,16 +1106,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>16.0992565279962</v>
+        <v>14.02432336359548</v>
       </c>
       <c r="L16">
-        <v>7.810343989040884</v>
+        <v>10.11952092937072</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>14.6178973163713</v>
+        <v>22.22419210425785</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>20.18760252574977</v>
+        <v>17.9227645202661</v>
       </c>
       <c r="C17">
-        <v>7.539169927109761</v>
+        <v>6.687638477190948</v>
       </c>
       <c r="D17">
-        <v>8.543065448544288</v>
+        <v>6.417328359297874</v>
       </c>
       <c r="E17">
-        <v>7.783781632581268</v>
+        <v>11.14531522848835</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>50.16295801978711</v>
+        <v>52.77812206085362</v>
       </c>
       <c r="H17">
-        <v>14.57178506595319</v>
+        <v>19.90502683126005</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,16 +1153,16 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>15.74286889245093</v>
+        <v>13.95367768402329</v>
       </c>
       <c r="L17">
-        <v>7.711787882216019</v>
+        <v>10.11068914937618</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>14.68047239262422</v>
+        <v>22.24265779583974</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>19.94656468559265</v>
+        <v>17.8645070134451</v>
       </c>
       <c r="C18">
-        <v>7.475488359080458</v>
+        <v>6.664564030841852</v>
       </c>
       <c r="D18">
-        <v>8.429493994048132</v>
+        <v>6.386637197053675</v>
       </c>
       <c r="E18">
-        <v>7.747631055164146</v>
+        <v>11.14478198415573</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>49.76374813983234</v>
+        <v>52.71010295552766</v>
       </c>
       <c r="H18">
-        <v>14.51754979373837</v>
+        <v>19.90457319972588</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>15.53519431416594</v>
+        <v>13.91322122883078</v>
       </c>
       <c r="L18">
-        <v>7.655144193620909</v>
+        <v>10.10579039795472</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>14.71701949487511</v>
+        <v>22.25346603441291</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>19.86456224832974</v>
+        <v>17.84481553892383</v>
       </c>
       <c r="C19">
-        <v>7.453840168574883</v>
+        <v>6.656717423918815</v>
       </c>
       <c r="D19">
-        <v>8.390790971640058</v>
+        <v>6.376241560522784</v>
       </c>
       <c r="E19">
-        <v>7.735447570372525</v>
+        <v>11.14463167103905</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>49.62881958154642</v>
+        <v>52.68726597063677</v>
       </c>
       <c r="H19">
-        <v>14.49935764111599</v>
+        <v>19.90447604720572</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,16 +1247,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>15.46441394057098</v>
+        <v>13.89955508575353</v>
       </c>
       <c r="L19">
-        <v>7.635973913688167</v>
+        <v>10.10416294731089</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>14.72948754670446</v>
+        <v>22.2571576820513</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>20.23202728715722</v>
+        <v>17.93356212861629</v>
       </c>
       <c r="C20">
-        <v>7.550914830450771</v>
+        <v>6.691892823634331</v>
       </c>
       <c r="D20">
-        <v>8.563966814054961</v>
+        <v>6.423006360749945</v>
       </c>
       <c r="E20">
-        <v>7.790499098122114</v>
+        <v>11.14542827546288</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>50.23695471603665</v>
+        <v>52.79080228096014</v>
       </c>
       <c r="H20">
-        <v>14.58190443571943</v>
+        <v>19.90513759466587</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>15.78108455110262</v>
+        <v>13.96118002138057</v>
       </c>
       <c r="L20">
-        <v>7.722275084062639</v>
+        <v>10.11161058960655</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>14.67375328588567</v>
+        <v>22.24067271089895</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>21.557128112575</v>
+        <v>18.23378766811752</v>
       </c>
       <c r="C21">
-        <v>7.87108767885987</v>
+        <v>6.807672300227152</v>
       </c>
       <c r="D21">
-        <v>9.128715449584938</v>
+        <v>6.579675666178191</v>
       </c>
       <c r="E21">
-        <v>7.97938334321097</v>
+        <v>11.15020430082685</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>52.29636367501542</v>
+        <v>53.15190725042036</v>
       </c>
       <c r="H21">
-        <v>14.87140581228241</v>
+        <v>19.9112848723394</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>16.81317217201461</v>
+        <v>14.17025038732571</v>
       </c>
       <c r="L21">
-        <v>8.012693242826277</v>
+        <v>10.13879021431909</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>14.49325707054305</v>
+        <v>22.18752274419074</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>22.39635879388166</v>
+        <v>18.43119964978916</v>
       </c>
       <c r="C22">
-        <v>8.075957225628407</v>
+        <v>6.88150263901247</v>
       </c>
       <c r="D22">
-        <v>9.485399790270941</v>
+        <v>6.681539509634791</v>
       </c>
       <c r="E22">
-        <v>8.105746447682758</v>
+        <v>11.15488574502086</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>53.65414965084022</v>
+        <v>53.39753491029639</v>
       </c>
       <c r="H22">
-        <v>15.06999119046211</v>
+        <v>19.91822479365681</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>17.46453920880294</v>
+        <v>14.30817460313785</v>
       </c>
       <c r="L22">
-        <v>8.202724158464743</v>
+        <v>10.15814526696261</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>14.38063686890157</v>
+        <v>22.15445348917711</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>21.9509858194952</v>
+        <v>18.32574866062889</v>
       </c>
       <c r="C23">
-        <v>7.967009109910658</v>
+        <v>6.842269053071511</v>
       </c>
       <c r="D23">
-        <v>9.296144154971451</v>
+        <v>6.627233141400513</v>
       </c>
       <c r="E23">
-        <v>8.038037029105672</v>
+        <v>11.15224475743893</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>52.928392069967</v>
+        <v>53.26557412623229</v>
       </c>
       <c r="H23">
-        <v>14.96312287605034</v>
+        <v>19.91425365293792</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,16 +1435,16 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>17.11897161791359</v>
+        <v>14.23445841157303</v>
       </c>
       <c r="L23">
-        <v>8.101286446658703</v>
+        <v>10.14767053543486</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>14.44023434795759</v>
+        <v>22.1719506195635</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>20.21195029064766</v>
+        <v>17.92868003518929</v>
       </c>
       <c r="C24">
-        <v>7.54560661701009</v>
+        <v>6.689970086873521</v>
       </c>
       <c r="D24">
-        <v>8.554521963858017</v>
+        <v>6.420439472894957</v>
       </c>
       <c r="E24">
-        <v>7.78746116050089</v>
+        <v>11.14537661998425</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>50.20349711927879</v>
+        <v>52.78506616932773</v>
       </c>
       <c r="H24">
-        <v>14.5773264176819</v>
+        <v>19.90508649607829</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>15.76381592747545</v>
+        <v>13.9577877170779</v>
       </c>
       <c r="L24">
-        <v>7.717533763523566</v>
+        <v>10.11119344945017</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>14.67678921700746</v>
+        <v>22.24156956944048</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>18.4123488761498</v>
+        <v>17.50766216450002</v>
       </c>
       <c r="C25">
-        <v>7.07182864234354</v>
+        <v>6.518100889952996</v>
       </c>
       <c r="D25">
-        <v>7.699175397438604</v>
+        <v>6.196363512885069</v>
       </c>
       <c r="E25">
-        <v>7.529751244125839</v>
+        <v>11.14469506569454</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>47.31715060937623</v>
+        <v>52.30960210206231</v>
       </c>
       <c r="H25">
-        <v>14.19942082742435</v>
+        <v>19.90775878397354</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,16 +1529,16 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>14.19882567057276</v>
+        <v>13.66629482225015</v>
       </c>
       <c r="L25">
-        <v>7.305412236093859</v>
+        <v>10.07877830919009</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>14.95303334417861</v>
+        <v>22.32382472819644</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_67/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_67/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.20623640891663</v>
+        <v>17.0140810404836</v>
       </c>
       <c r="C2">
-        <v>6.385358286240186</v>
+        <v>6.706286765526066</v>
       </c>
       <c r="D2">
-        <v>6.031926204540781</v>
+        <v>7.01950968404247</v>
       </c>
       <c r="E2">
-        <v>11.14999939463377</v>
+        <v>7.35091176882286</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>51.99776718609861</v>
+        <v>45.24181235150783</v>
       </c>
       <c r="H2">
-        <v>19.92052412535984</v>
+        <v>13.95184497910344</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,16 +448,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>13.4591484081665</v>
+        <v>12.9536972273377</v>
       </c>
       <c r="L2">
-        <v>10.0609563846518</v>
+        <v>7.00475595940805</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>22.39055922143823</v>
+        <v>15.17289623053046</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.00846135065884</v>
+        <v>16.02281870804611</v>
       </c>
       <c r="C3">
-        <v>6.291716114484077</v>
+        <v>6.448281418954904</v>
       </c>
       <c r="D3">
-        <v>5.921587917251717</v>
+        <v>6.526745377751113</v>
       </c>
       <c r="E3">
-        <v>11.15722288934395</v>
+        <v>7.236591197308615</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>51.81089791319044</v>
+        <v>43.87000702829684</v>
       </c>
       <c r="H3">
-        <v>19.93590165317431</v>
+        <v>13.8021027492571</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,16 +495,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>13.32417713301473</v>
+        <v>12.05008911554047</v>
       </c>
       <c r="L3">
-        <v>10.05268370440948</v>
+        <v>6.803553167269858</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>22.43964158609521</v>
+        <v>15.33150552472604</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.89061543450823</v>
+        <v>15.39379358907648</v>
       </c>
       <c r="C4">
-        <v>6.232470128137936</v>
+        <v>6.284914801517528</v>
       </c>
       <c r="D4">
-        <v>5.854646153820521</v>
+        <v>6.232912124165814</v>
       </c>
       <c r="E4">
-        <v>11.16344942164739</v>
+        <v>7.169816142261529</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>51.70839836525851</v>
+        <v>43.04629507514696</v>
       </c>
       <c r="H4">
-        <v>19.94865658522837</v>
+        <v>13.71869074736057</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>13.24421737541546</v>
+        <v>11.58322948458391</v>
       </c>
       <c r="L4">
-        <v>10.04949064899785</v>
+        <v>6.681594281277368</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>22.47168246559633</v>
+        <v>15.43344883717561</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.84355112225058</v>
+        <v>15.13256591914788</v>
       </c>
       <c r="C5">
-        <v>6.20789772226456</v>
+        <v>6.217122631394272</v>
       </c>
       <c r="D5">
-        <v>5.827609801962024</v>
+        <v>6.120355713328735</v>
       </c>
       <c r="E5">
-        <v>11.16643740675645</v>
+        <v>7.143467698992143</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>51.66973005462512</v>
+        <v>42.71554470126876</v>
       </c>
       <c r="H5">
-        <v>19.95468667366077</v>
+        <v>13.68678904464623</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,16 +589,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>13.21240139875742</v>
+        <v>11.39001562062715</v>
       </c>
       <c r="L5">
-        <v>10.04866510430183</v>
+        <v>6.632344968653083</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>22.48521846208448</v>
+        <v>15.47611343802903</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.83579565057697</v>
+        <v>15.08890154837382</v>
       </c>
       <c r="C6">
-        <v>6.203791891331231</v>
+        <v>6.205793062982144</v>
       </c>
       <c r="D6">
-        <v>5.823136283894241</v>
+        <v>6.101529987569978</v>
       </c>
       <c r="E6">
-        <v>11.16696077911949</v>
+        <v>7.139144749988141</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>51.66349711934465</v>
+        <v>42.66092828329545</v>
       </c>
       <c r="H6">
-        <v>19.95573821092913</v>
+        <v>13.68161631458015</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,16 +636,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>13.20716579480936</v>
+        <v>11.35772693042211</v>
       </c>
       <c r="L6">
-        <v>10.04855678395487</v>
+        <v>6.624195910973548</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>22.48749504745281</v>
+        <v>15.48326497956098</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.88997675334056</v>
+        <v>15.39029005147054</v>
       </c>
       <c r="C7">
-        <v>6.232140459404481</v>
+        <v>6.284005428846211</v>
       </c>
       <c r="D7">
-        <v>5.854280495302461</v>
+        <v>6.231403319702481</v>
       </c>
       <c r="E7">
-        <v>11.16348789393915</v>
+        <v>7.169457300497255</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>51.70786428670618</v>
+        <v>43.04181421197302</v>
       </c>
       <c r="H7">
-        <v>19.94873454016594</v>
+        <v>13.71825212515023</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,16 +683,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>13.24378513730724</v>
+        <v>11.58063766233941</v>
       </c>
       <c r="L7">
-        <v>10.04947758800866</v>
+        <v>6.680928194974924</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>22.47186307668101</v>
+        <v>15.4340197138255</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.13733316809688</v>
+        <v>16.67664603353582</v>
       </c>
       <c r="C8">
-        <v>6.353439822011945</v>
+        <v>6.618367250391306</v>
       </c>
       <c r="D8">
-        <v>5.993738290761089</v>
+        <v>6.852934709007885</v>
       </c>
       <c r="E8">
-        <v>11.15211842395117</v>
+        <v>7.310786966147361</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>51.93080972953873</v>
+        <v>44.76510123688357</v>
       </c>
       <c r="H8">
-        <v>19.9251382801977</v>
+        <v>13.89841047566165</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,16 +730,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>13.41202760162009</v>
+        <v>12.64832250533939</v>
       </c>
       <c r="L8">
-        <v>10.05771330051778</v>
+        <v>6.935083850211607</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>22.40708778677241</v>
+        <v>15.22662364445789</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.64830685774235</v>
+        <v>19.03009518516497</v>
       </c>
       <c r="C9">
-        <v>6.576981099408499</v>
+        <v>7.234018767133427</v>
       </c>
       <c r="D9">
-        <v>6.27185698784542</v>
+        <v>7.994904688896143</v>
       </c>
       <c r="E9">
-        <v>11.1440239048796</v>
+        <v>7.614875364743668</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>52.4639100039028</v>
+        <v>48.28206334587433</v>
       </c>
       <c r="H9">
-        <v>19.90518057804282</v>
+        <v>14.32180894487644</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,16 +777,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>13.76342390805795</v>
+        <v>14.7401569934988</v>
       </c>
       <c r="L9">
-        <v>10.08876352145035</v>
+        <v>7.44389850773611</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>22.29515929009064</v>
+        <v>14.8573225266015</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.03598803476261</v>
+        <v>20.69048862336282</v>
       </c>
       <c r="C10">
-        <v>6.731919661058328</v>
+        <v>7.661477975671612</v>
       </c>
       <c r="D10">
-        <v>6.476712003812188</v>
+        <v>8.760063492696805</v>
       </c>
       <c r="E10">
-        <v>11.14671263283031</v>
+        <v>7.854485458503513</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>52.91218753140951</v>
+        <v>50.93905053848937</v>
       </c>
       <c r="H10">
-        <v>19.9065864341752</v>
+        <v>14.67892464689482</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,16 +824,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>14.03240752358355</v>
+        <v>16.13956095064481</v>
       </c>
       <c r="L10">
-        <v>10.12055316329339</v>
+        <v>7.821595139543194</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>22.22211041388391</v>
+        <v>14.61083359867207</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.21425687554213</v>
+        <v>21.47278079269817</v>
       </c>
       <c r="C11">
-        <v>6.800276163709622</v>
+        <v>7.850598275192539</v>
       </c>
       <c r="D11">
-        <v>6.569550649511208</v>
+        <v>9.092851023968976</v>
       </c>
       <c r="E11">
-        <v>11.14980378984019</v>
+        <v>7.966973959257021</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>53.12794204978386</v>
+        <v>52.16222511780765</v>
       </c>
       <c r="H11">
-        <v>19.91071614374776</v>
+        <v>14.85210667948112</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>14.15662348157089</v>
+        <v>16.7476571490519</v>
       </c>
       <c r="L11">
-        <v>10.13693590904992</v>
+        <v>7.993859335149196</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>22.19086960651929</v>
+        <v>14.50464815125125</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.28197383499878</v>
+        <v>21.76416699096349</v>
       </c>
       <c r="C12">
-        <v>6.825846573079801</v>
+        <v>7.921460269434633</v>
       </c>
       <c r="D12">
-        <v>6.604618703622503</v>
+        <v>9.216735448846809</v>
       </c>
       <c r="E12">
-        <v>11.15124207618783</v>
+        <v>8.01007102061515</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>53.21129886776218</v>
+        <v>52.62744320976967</v>
       </c>
       <c r="H12">
-        <v>19.91278140510717</v>
+        <v>14.91929069510748</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,16 +918,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>14.20388515062595</v>
+        <v>16.97394606516773</v>
       </c>
       <c r="L12">
-        <v>10.14341302890991</v>
+        <v>8.059131750669104</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>22.17932544154035</v>
+        <v>14.46534933454934</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.26738143425678</v>
+        <v>21.70162555803552</v>
       </c>
       <c r="C13">
-        <v>6.820353663470116</v>
+        <v>7.906232104333043</v>
       </c>
       <c r="D13">
-        <v>6.597070658994024</v>
+        <v>9.190148618240105</v>
       </c>
       <c r="E13">
-        <v>11.15092042370454</v>
+        <v>8.000767051356057</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>53.19327363228077</v>
+        <v>52.52716018084678</v>
       </c>
       <c r="H13">
-        <v>19.91231432291119</v>
+        <v>14.9047490714246</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>14.19369723225975</v>
+        <v>16.9253859717554</v>
       </c>
       <c r="L13">
-        <v>10.14200595923014</v>
+        <v>8.045072709155184</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>22.18179896217649</v>
+        <v>14.47377151281984</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.21982413937968</v>
+        <v>21.49684983446033</v>
       </c>
       <c r="C14">
-        <v>6.802386213995486</v>
+        <v>7.856443138254132</v>
       </c>
       <c r="D14">
-        <v>6.572437689924642</v>
+        <v>9.103085479611558</v>
       </c>
       <c r="E14">
-        <v>11.14991675837092</v>
+        <v>7.970509557099378</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>53.13476696582183</v>
+        <v>52.20045833716426</v>
       </c>
       <c r="H14">
-        <v>19.9108760081803</v>
+        <v>14.8576014431103</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,16 +1012,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>14.16050748745416</v>
+        <v>16.76635323275334</v>
       </c>
       <c r="L14">
-        <v>10.13746332571361</v>
+        <v>7.999228653068235</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>22.18991412837049</v>
+        <v>14.50139639486323</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.19071942845439</v>
+        <v>21.37079064010261</v>
       </c>
       <c r="C15">
-        <v>6.791339387696094</v>
+        <v>7.825848316591825</v>
       </c>
       <c r="D15">
-        <v>6.557336752606978</v>
+        <v>9.049480710908576</v>
       </c>
       <c r="E15">
-        <v>11.14933682218987</v>
+        <v>7.952041094969877</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>53.0991440896593</v>
+        <v>52.00060757855728</v>
       </c>
       <c r="H15">
-        <v>19.91006028188036</v>
+        <v>14.82893289509249</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>14.14020568440943</v>
+        <v>16.66842580219332</v>
       </c>
       <c r="L15">
-        <v>10.13471633396439</v>
+        <v>7.971152419850072</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>22.19492215351684</v>
+        <v>14.5184379394399</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>18.02437068025228</v>
+        <v>20.63867877207398</v>
       </c>
       <c r="C16">
-        <v>6.727408843442078</v>
+        <v>7.649012154246433</v>
       </c>
       <c r="D16">
-        <v>6.470634476454343</v>
+        <v>8.738012735448972</v>
       </c>
       <c r="E16">
-        <v>11.14654813539526</v>
+        <v>7.847204081345415</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>52.89832167248024</v>
+        <v>50.8593987192856</v>
       </c>
       <c r="H16">
-        <v>19.9063867465246</v>
+        <v>14.66782780211956</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,16 +1106,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>14.02432336359548</v>
+        <v>16.09925652799627</v>
       </c>
       <c r="L16">
-        <v>10.11952092937072</v>
+        <v>7.810343989040907</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>22.22419210425785</v>
+        <v>14.61789731637125</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.9227645202661</v>
+        <v>20.18760252574977</v>
       </c>
       <c r="C17">
-        <v>6.687638477190948</v>
+        <v>7.539169927109546</v>
       </c>
       <c r="D17">
-        <v>6.417328359297874</v>
+        <v>8.543065448544345</v>
       </c>
       <c r="E17">
-        <v>11.14531522848835</v>
+        <v>7.783781632581194</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>52.77812206085362</v>
+        <v>50.16295801978715</v>
       </c>
       <c r="H17">
-        <v>19.90502683126005</v>
+        <v>14.57178506595321</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,16 +1153,16 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>13.95367768402329</v>
+        <v>15.74286889245094</v>
       </c>
       <c r="L17">
-        <v>10.11068914937618</v>
+        <v>7.711787882215986</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>22.24265779583974</v>
+        <v>14.68047239262425</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.8645070134451</v>
+        <v>19.94656468559263</v>
       </c>
       <c r="C18">
-        <v>6.664564030841852</v>
+        <v>7.475488359080569</v>
       </c>
       <c r="D18">
-        <v>6.386637197053675</v>
+        <v>8.429493994048221</v>
       </c>
       <c r="E18">
-        <v>11.14478198415573</v>
+        <v>7.74763105516412</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>52.71010295552766</v>
+        <v>49.76374813983233</v>
       </c>
       <c r="H18">
-        <v>19.90457319972588</v>
+        <v>14.51754979373842</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>13.91322122883078</v>
+        <v>15.53519431416588</v>
       </c>
       <c r="L18">
-        <v>10.10579039795472</v>
+        <v>7.65514419362087</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>22.25346603441291</v>
+        <v>14.71701949487513</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.84481553892383</v>
+        <v>19.86456224832974</v>
       </c>
       <c r="C19">
-        <v>6.656717423918815</v>
+        <v>7.453840168574784</v>
       </c>
       <c r="D19">
-        <v>6.376241560522784</v>
+        <v>8.390790971640131</v>
       </c>
       <c r="E19">
-        <v>11.14463167103905</v>
+        <v>7.735447570372502</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>52.68726597063677</v>
+        <v>49.6288195815463</v>
       </c>
       <c r="H19">
-        <v>19.90447604720572</v>
+        <v>14.49935764111593</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,16 +1247,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>13.89955508575353</v>
+        <v>15.46441394057103</v>
       </c>
       <c r="L19">
-        <v>10.10416294731089</v>
+        <v>7.635973913688172</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>22.2571576820513</v>
+        <v>14.72948754670438</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.93356212861629</v>
+        <v>20.23202728715722</v>
       </c>
       <c r="C20">
-        <v>6.691892823634331</v>
+        <v>7.550914830451102</v>
       </c>
       <c r="D20">
-        <v>6.423006360749945</v>
+        <v>8.563966814054979</v>
       </c>
       <c r="E20">
-        <v>11.14542827546288</v>
+        <v>7.790499098122152</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>52.79080228096014</v>
+        <v>50.23695471603671</v>
       </c>
       <c r="H20">
-        <v>19.90513759466587</v>
+        <v>14.58190443571941</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>13.96118002138057</v>
+        <v>15.78108455110268</v>
       </c>
       <c r="L20">
-        <v>10.11161058960655</v>
+        <v>7.722275084062592</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>22.24067271089895</v>
+        <v>14.67375328588568</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.23378766811752</v>
+        <v>21.55712811257492</v>
       </c>
       <c r="C21">
-        <v>6.807672300227152</v>
+        <v>7.871087678859897</v>
       </c>
       <c r="D21">
-        <v>6.579675666178191</v>
+        <v>9.128715449584947</v>
       </c>
       <c r="E21">
-        <v>11.15020430082685</v>
+        <v>7.979383343210898</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>53.15190725042036</v>
+        <v>52.29636367501549</v>
       </c>
       <c r="H21">
-        <v>19.9112848723394</v>
+        <v>14.8714058122825</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>14.17025038732571</v>
+        <v>16.81317217201451</v>
       </c>
       <c r="L21">
-        <v>10.13879021431909</v>
+        <v>8.012693242826259</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>22.18752274419074</v>
+        <v>14.49325707054317</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.43119964978916</v>
+        <v>22.39635879388164</v>
       </c>
       <c r="C22">
-        <v>6.88150263901247</v>
+        <v>8.075957225628191</v>
       </c>
       <c r="D22">
-        <v>6.681539509634791</v>
+        <v>9.485399790271025</v>
       </c>
       <c r="E22">
-        <v>11.15488574502086</v>
+        <v>8.105746447682748</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>53.39753491029639</v>
+        <v>53.65414965084019</v>
       </c>
       <c r="H22">
-        <v>19.91822479365681</v>
+        <v>15.06999119046213</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>14.30817460313785</v>
+        <v>17.46453920880285</v>
       </c>
       <c r="L22">
-        <v>10.15814526696261</v>
+        <v>8.202724158464758</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>22.15445348917711</v>
+        <v>14.38063686890165</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.32574866062889</v>
+        <v>21.95098581949521</v>
       </c>
       <c r="C23">
-        <v>6.842269053071511</v>
+        <v>7.967009109910775</v>
       </c>
       <c r="D23">
-        <v>6.627233141400513</v>
+        <v>9.296144154971437</v>
       </c>
       <c r="E23">
-        <v>11.15224475743893</v>
+        <v>8.038037029105688</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>53.26557412623229</v>
+        <v>52.92839206996693</v>
       </c>
       <c r="H23">
-        <v>19.91425365293792</v>
+        <v>14.96312287605026</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,16 +1435,16 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>14.23445841157303</v>
+        <v>17.11897161791362</v>
       </c>
       <c r="L23">
-        <v>10.14767053543486</v>
+        <v>8.101286446658698</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>22.1719506195635</v>
+        <v>14.44023434795755</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.92868003518929</v>
+        <v>20.21195029064768</v>
       </c>
       <c r="C24">
-        <v>6.689970086873521</v>
+        <v>7.545606617010302</v>
       </c>
       <c r="D24">
-        <v>6.420439472894957</v>
+        <v>8.554521963858065</v>
       </c>
       <c r="E24">
-        <v>11.14537661998425</v>
+        <v>7.787461160500945</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>52.78506616932773</v>
+        <v>50.20349711927889</v>
       </c>
       <c r="H24">
-        <v>19.90508649607829</v>
+        <v>14.57732641768188</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>13.9577877170779</v>
+        <v>15.76381592747548</v>
       </c>
       <c r="L24">
-        <v>10.11119344945017</v>
+        <v>7.71753376352353</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>22.24156956944048</v>
+        <v>14.6767892170075</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>17.50766216450002</v>
+        <v>18.41234887614976</v>
       </c>
       <c r="C25">
-        <v>6.518100889952996</v>
+        <v>7.071828642343228</v>
       </c>
       <c r="D25">
-        <v>6.196363512885069</v>
+        <v>7.699175397438494</v>
       </c>
       <c r="E25">
-        <v>11.14469506569454</v>
+        <v>7.52975124412576</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>52.30960210206231</v>
+        <v>47.31715060937596</v>
       </c>
       <c r="H25">
-        <v>19.90775878397354</v>
+        <v>14.19942082742417</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,16 +1529,16 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>13.66629482225015</v>
+        <v>14.19882567057284</v>
       </c>
       <c r="L25">
-        <v>10.07877830919009</v>
+        <v>7.305412236093822</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>22.32382472819644</v>
+        <v>14.95303334417846</v>
       </c>
       <c r="O25">
         <v>0</v>
